--- a/Illustration.xlsx
+++ b/Illustration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="315" yWindow="75" windowWidth="19980" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mean" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Mean of Ungrouped Data</t>
   </si>
@@ -180,12 +180,72 @@
   <si>
     <t>Correlation is independent of change of origin and scale</t>
   </si>
+  <si>
+    <t>Calculate the rank correlation coefficient for proficiencies of this group in Mathematics and Statistics</t>
+  </si>
+  <si>
+    <t>The ranks of same 16 students in Mathematics and Statistics are as follows.</t>
+  </si>
+  <si>
+    <t>Ranks in Maths (x)</t>
+  </si>
+  <si>
+    <t>Ranks in Stats (y)</t>
+  </si>
+  <si>
+    <t>d = x-y</t>
+  </si>
+  <si>
+    <t>d^2</t>
+  </si>
+  <si>
+    <t>Rank Correlatin coefficient is given by</t>
+  </si>
+  <si>
+    <t>ρ =</t>
+  </si>
+  <si>
+    <t>Eample 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Obtain the rank correlatin coefficient for the following data:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Rank of x</t>
+  </si>
+  <si>
+    <t>Rank of y</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>in x series 75 occuers 2 times and 68 occurs thrice</t>
+  </si>
+  <si>
+    <t>Total correction for the x series is:</t>
+  </si>
+  <si>
+    <t>In y series 68 occurs twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total correction for the y series is: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,16 +267,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,11 +320,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,13 +350,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,6 +376,105 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10763250" y="2076450"/>
+          <a:ext cx="2981325" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10763250" y="3600450"/>
+          <a:ext cx="1409700" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +841,7 @@
         <f>J5*I5</f>
         <v>25</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="10">
         <f>K10/J10</f>
         <v>23.8</v>
       </c>
@@ -658,11 +850,11 @@
       <c r="B6" s="4">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <f>SUM(B6:B25)/B26</f>
         <v>28.583333333333332</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <f>AVERAGE(B6:B25)</f>
         <v>28.583333333333332</v>
       </c>
@@ -679,14 +871,14 @@
         <f t="shared" ref="K6:K9" si="0">J6*I6</f>
         <v>105</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="4">
         <v>37</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
@@ -700,14 +892,14 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
@@ -721,14 +913,14 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
@@ -742,14 +934,14 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
@@ -762,112 +954,112 @@
         <f>SUM(K5:K9)</f>
         <v>595</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="4">
         <v>42</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="4">
         <v>20</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="4">
         <v>36</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="4">
         <v>30</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="4">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="4">
         <v>24</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="4">
         <v>24</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="4">
         <v>11</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="4">
         <v>45</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
@@ -50022,7 +50214,7 @@
         <f>B4*A4</f>
         <v>800</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <f>SUM(C4:C5)/SUM(B4:B5)</f>
         <v>68</v>
       </c>
@@ -50038,7 +50230,7 @@
         <f>B5*A5</f>
         <v>900</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -50071,7 +50263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -50279,11 +50471,11 @@
         <f t="shared" si="2"/>
         <v>4968</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="N9" s="3">
@@ -50315,13 +50507,13 @@
         <f t="shared" si="2"/>
         <v>4830</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>1</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="9"/>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>0.4</v>
@@ -50351,13 +50543,13 @@
         <f t="shared" si="2"/>
         <v>5112</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>0.60302268915552726</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>1</v>
       </c>
       <c r="N11" s="3">
@@ -50409,11 +50601,11 @@
         <f>(F12/8)-B14*B15</f>
         <v>3</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -50439,13 +50631,13 @@
         <f>D14/(D15*D16)</f>
         <v>0.60302268915552726</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>1</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17">
       <c r="C16" t="s">
@@ -50455,13 +50647,13 @@
         <f>SQRT((E12/8)-(B15*B15))</f>
         <v>2.3452078799117149</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <v>0.60302268915552726</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -50472,12 +50664,591 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>A6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4">
+        <v>68</v>
+      </c>
+      <c r="K6" s="4">
+        <v>62</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <f>L6-M6</f>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="4">
+        <f>N6*N6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C21" si="0">A7-B7</f>
+        <v>-8</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D21" si="1">C7*C7</f>
+        <v>64</v>
+      </c>
+      <c r="J7" s="4">
+        <v>64</v>
+      </c>
+      <c r="K7" s="4">
+        <v>58</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" ref="N7:N15" si="2">L7-M7</f>
+        <v>-1</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" ref="O7:O16" si="3">N7*N7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="13">
+        <f>1-(6*D22)/(16*255)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="4">
+        <v>75</v>
+      </c>
+      <c r="K8" s="4">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45</v>
+      </c>
+      <c r="L9" s="4">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>64</v>
+      </c>
+      <c r="K10" s="4">
+        <v>81</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>80</v>
+      </c>
+      <c r="K11" s="4">
+        <v>60</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="4">
+        <v>75</v>
+      </c>
+      <c r="K12" s="4">
+        <v>68</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4">
+        <v>48</v>
+      </c>
+      <c r="L13" s="4">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>55</v>
+      </c>
+      <c r="K14" s="4">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4">
+        <v>8</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>64</v>
+      </c>
+      <c r="K15" s="4">
+        <v>70</v>
+      </c>
+      <c r="L15" s="4">
+        <v>6</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <f>SUM(N6:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM(O6:O15)</f>
+        <v>72</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="12">
+        <f>(1-6*(O16+5/2+1/2)/(10*99))</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <f>SUM(C6:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(D6:D21)</f>
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>